--- a/documents/初步结构设计.xlsx
+++ b/documents/初步结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>questions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mylist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,7 +85,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OneToOne</t>
+    <t>具体内容待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从内置的User类继承部分属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功/失败信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功/失败信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要重载默认视图，不然大概只能在后台渲染页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求用户缩略信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户未登录/用户的头像路径和昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户空间信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资料，问题回答，收藏历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个页面都有这个请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何上传文件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要考虑前段发怎样的信息能让后端用来查找到用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入用户空间时请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capiton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -101,27 +197,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ManyToMany</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.Profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体内容待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从内置的User类继承部分属性</t>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentAnswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>able_modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>able_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneToOne，自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像文件路径，可空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneToOne，自动创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneToOne，自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey，自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动，默认为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,71 +317,303 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户试图登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功/失败信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户试图注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆成功/失败信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要重载默认视图，不然大概只能在后台渲染页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求用户缩略信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户未登录/用户的头像路径和昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户头像文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户空间信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户资料，问题回答，收藏历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个页面都有这个请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何上传文件？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要考虑前段发怎样的信息能让后端用来查找到用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入用户空间时请求</t>
+    <t>创建tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在引用一个不存在的tag时，先创建此tag，再创建问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建成功/失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏和历史只能记录回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图创建问题，tag不存在时先创建tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这可能不是api，整合进创建问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图创建回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建问题评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图创建问题评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建回答评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图创建回答评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取问题信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户进入问题页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取回答缩略信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答缩略信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取回答信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户进入回答页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取问题缩略信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户进入问题页面，首页推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户进入回答页面，首页推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题缩略信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页推荐需要问题和回答缩略，问题页面需要问题详细回答缩略，回答页面需要回答详细问题缩略，自行组合进行显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否返回所有回答的缩略信息？还是只返回一部分？后者需要先进行推荐排序；首页推荐必须要进行排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取问题评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题评论信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开回答评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开问题评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答评论信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取回答评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入回答页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括是否允许添加回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功/失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图修改问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图修改回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除问题评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功/失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图删除问题评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除回答评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试图删除回答评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞成功/失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩成功/失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算失败了也不能要求用户重来一次，所以算了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MylistInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManyToMany，through MylistInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户进入首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要一个实例，只有管理员能够修改，真的需要单独作为一个App吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取首页推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页推荐列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是只返回推荐的回答id然后再让前端是用上面的api请求内容吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,21 +939,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="114.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,162 +971,683 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" t="s">
         <v>43</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/documents/初步结构设计.xlsx
+++ b/documents/初步结构设计.xlsx
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/documents/初步结构设计.xlsx
+++ b/documents/初步结构设计.xlsx
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
